--- a/results_output/tbl_output_template.xlsx
+++ b/results_output/tbl_output_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc-my.sharepoint.com/personal/yql8_cdc_gov/Documents/GitHub/mpox-case-control-ve_analysis/results_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="8_{5358A8D6-4C79-4008-901D-931C71A934A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29B38FBC-051E-4CD5-8186-1D8516AAC94E}"/>
+  <xr:revisionPtr revIDLastSave="223" documentId="8_{5358A8D6-4C79-4008-901D-931C71A934A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74F0E8A1-E76D-4EDB-BB08-798F28FF38A7}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="3" xr2:uid="{4BAFF7CD-0C32-46B1-B668-7A2D68C16476}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4BAFF7CD-0C32-46B1-B668-7A2D68C16476}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="240">
   <si>
     <t>covariates</t>
   </si>
@@ -969,6 +969,27 @@
   </si>
   <si>
     <t>IC-No</t>
+  </si>
+  <si>
+    <t>Unknown HIV status</t>
+  </si>
+  <si>
+    <t>Non-Hispanic, Black or African American</t>
+  </si>
+  <si>
+    <t>Non-Hispanic, White</t>
+  </si>
+  <si>
+    <t>Non-Hispanic, Other</t>
+  </si>
+  <si>
+    <t>Unknown </t>
+  </si>
+  <si>
+    <t>CD4 count &lt;200 cells/μL</t>
+  </si>
+  <si>
+    <t>hiv_cd4_200_cat...Yes....</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1095,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1151,6 +1172,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1468,14 +1492,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997D926D-6E33-4B75-9D76-7242697631DC}">
   <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection sqref="A1:B61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.44140625" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1536,7 +1561,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="B8" t="s">
         <v>191</v>
@@ -1544,7 +1569,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="B9" t="s">
         <v>192</v>
@@ -1560,7 +1585,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>83</v>
+        <v>236</v>
       </c>
       <c r="B11" t="s">
         <v>194</v>
@@ -1648,7 +1673,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -1736,10 +1761,10 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
-        <v>92</v>
+        <v>238</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1759,51 +1784,51 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>204</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1867,7 +1892,7 @@
         <v>219</v>
       </c>
       <c r="B49" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -2055,7 +2080,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>25</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -3218,7 +3243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AF69B3-0B95-4886-A4DD-BB7979F3AEE2}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
